--- a/Board-Hardware/Manufacturing/BoSL BOM Rev 0.4.xlsx
+++ b/Board-Hardware/Manufacturing/BoSL BOM Rev 0.4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Monash-BoSL\Board-Hardware\Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB52793-B39D-4105-9F08-0B189F188DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B347CF-97B1-4834-A76A-238871A8AA66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="151">
   <si>
     <t>Part Number</t>
   </si>
@@ -459,6 +459,30 @@
   </si>
   <si>
     <t>https://www.digikey.com.au/product-detail/en/microchip-technology/ATMEGA328P-AUR/ATMEGA328P-AURCT-ND/3789455</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/keystone-electronics/2996TR/36-2996CT-ND/5878110</t>
+  </si>
+  <si>
+    <t>Battery Clip</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>2996TR</t>
+  </si>
+  <si>
+    <t>Button Cell Battery</t>
+  </si>
+  <si>
+    <t>LR44</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/LR44/490-18190-ND/9859017</t>
+  </si>
+  <si>
+    <t>1.5 V</t>
   </si>
 </sst>
 </file>
@@ -875,7 +899,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1744,7 +1768,7 @@
         <v>3.77</v>
       </c>
       <c r="H32" s="18">
-        <f>G32*F32</f>
+        <f t="shared" ref="H32:H39" si="1">G32*F32</f>
         <v>3.77</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -1765,7 +1789,7 @@
         <v>1.98</v>
       </c>
       <c r="H33" s="18">
-        <f>G33*F33</f>
+        <f t="shared" si="1"/>
         <v>1.98</v>
       </c>
       <c r="I33" s="3" t="s">
@@ -1792,7 +1816,7 @@
         <v>0.1</v>
       </c>
       <c r="H34" s="18">
-        <f>G34*F34</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1819,7 +1843,7 @@
         <v>0.1</v>
       </c>
       <c r="H35" s="15">
-        <f>G35*F35</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="I35" s="3"/>
@@ -1841,7 +1865,7 @@
         <v>0.77</v>
       </c>
       <c r="H36" s="15">
-        <f>G36*F36</f>
+        <f t="shared" si="1"/>
         <v>0.77</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -1869,7 +1893,7 @@
         <v>0.43</v>
       </c>
       <c r="H37" s="15">
-        <f>G37*F37</f>
+        <f t="shared" si="1"/>
         <v>0.43</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -1877,12 +1901,53 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="G38" s="17"/>
-      <c r="I38" s="3"/>
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0.63</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="G39" s="17"/>
-      <c r="I39" s="3"/>
+      <c r="A39" s="17"/>
+      <c r="B39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H39" s="15">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="G40" s="17"/>

--- a/Board-Hardware/Manufacturing/BoSL BOM Rev 0.4.xlsx
+++ b/Board-Hardware/Manufacturing/BoSL BOM Rev 0.4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20356"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Monash-BoSL\Board-Hardware\Manufacturing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User070\scat0009\Documents\Monash-BoSL\Board-Hardware\Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B347CF-97B1-4834-A76A-238871A8AA66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725048B5-A323-4C7A-B159-31C76A0937DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,21 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="152">
   <si>
     <t>Part Number</t>
   </si>
@@ -266,12 +256,6 @@
     <t>SMD</t>
   </si>
   <si>
-    <t>Through Hole</t>
-  </si>
-  <si>
-    <t>https://www.altronics.com.au/p/v1249a-8.000000mhz-low-profile-hc49s-crystal/</t>
-  </si>
-  <si>
     <t xml:space="preserve">3-Pin SOT-89 </t>
   </si>
   <si>
@@ -483,6 +467,15 @@
   </si>
   <si>
     <t>1.5 V</t>
+  </si>
+  <si>
+    <t>2-SMD</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/ecs-inc/ECS-80-18-30-JGN-TR/XC2103CT-ND/5875587</t>
+  </si>
+  <si>
+    <t>ECS-80-18-30-JGN-TR</t>
   </si>
 </sst>
 </file>
@@ -492,7 +485,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +566,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -596,7 +595,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -619,6 +618,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -930,13 +930,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -950,7 +950,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1019,7 +1019,7 @@
         <v>1.5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1054,10 +1054,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1076,7 +1076,7 @@
         <v>0.6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1112,7 +1112,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1160,16 +1160,16 @@
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1216,7 +1216,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -1244,7 +1244,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -1275,7 +1275,7 @@
         <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -1302,10 +1302,10 @@
         <v>33</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -1330,10 +1330,10 @@
         <v>33</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
@@ -1358,7 +1358,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
@@ -1411,7 +1411,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
@@ -1439,7 +1439,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>53</v>
@@ -1467,7 +1467,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -1495,7 +1495,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>78</v>
+        <v>151</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -1592,26 +1592,26 @@
         <v>1</v>
       </c>
       <c r="G25" s="15">
-        <v>0.1</v>
+        <v>0.69</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.69</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
         <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>86</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1624,21 +1624,21 @@
         <v>19</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1651,21 +1651,21 @@
         <v>1.5</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1678,21 +1678,21 @@
         <v>0.75</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1705,19 +1705,19 @@
         <v>2.16</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1730,22 +1730,22 @@
         <v>2.5</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1"/>
       <c r="B31" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
         <v>110</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" t="s">
-        <v>112</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -1753,13 +1753,13 @@
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1">
       <c r="A32" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -1772,15 +1772,15 @@
         <v>3.77</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="3" customFormat="1">
       <c r="A33" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>1.98</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1">
@@ -1801,13 +1801,13 @@
         <v>33</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -1825,16 +1825,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F35" s="3">
         <v>2</v>
@@ -1850,13 +1850,13 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -1869,22 +1869,22 @@
         <v>0.77</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -1897,18 +1897,18 @@
         <v>0.43</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>0.63</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="17"/>
       <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
         <v>148</v>
-      </c>
-      <c r="D39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" t="s">
-        <v>150</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
@@ -1946,7 +1946,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1963,17 +1963,16 @@
     <hyperlink ref="I8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="I4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I26" r:id="rId10" display="https://www.aliexpress.com/item/32963816626.html?spm=2114.search0604.3.36.61e15ac4BS3gJ9&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_6_10065_10130_10068_10547_319_317_10548_10696_453_10084_454_10083_10618_10307_537_536_10131_10132_10133_10059_10884_10887_321_322_10103%2Csearchweb201603_51%2CppcSwitch_0&amp;algo_expid=a8ad79e3-3036-4b7a-8391-3f73e7497cac-5&amp;algo_pvid=a8ad79e3-3036-4b7a-8391-3f73e7497cac" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I27" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I10" r:id="rId16" xr:uid="{68617DBC-81B6-4EF9-9C99-38891EFD4A08}"/>
-    <hyperlink ref="I7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I26" r:id="rId9" display="https://www.aliexpress.com/item/32963816626.html?spm=2114.search0604.3.36.61e15ac4BS3gJ9&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_6_10065_10130_10068_10547_319_317_10548_10696_453_10084_454_10083_10618_10307_537_536_10131_10132_10133_10059_10884_10887_321_322_10103%2Csearchweb201603_51%2CppcSwitch_0&amp;algo_expid=a8ad79e3-3036-4b7a-8391-3f73e7497cac-5&amp;algo_pvid=a8ad79e3-3036-4b7a-8391-3f73e7497cac" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I30" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I10" r:id="rId15" xr:uid="{68617DBC-81B6-4EF9-9C99-38891EFD4A08}"/>
+    <hyperlink ref="I7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Board-Hardware/Manufacturing/BoSL BOM Rev 0.4.xlsx
+++ b/Board-Hardware/Manufacturing/BoSL BOM Rev 0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User070\scat0009\Documents\Monash-BoSL\Board-Hardware\Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725048B5-A323-4C7A-B159-31C76A0937DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9326E202-A145-4CB8-850D-7ABD3533591C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="147">
   <si>
     <t>Part Number</t>
   </si>
@@ -76,9 +76,6 @@
     <t>1x02 / 2x04 / 1x06 / 1x08  (24 Total)</t>
   </si>
   <si>
-    <t>https://au.element14.com/multicomp/mctb-31c04/terminal-block-pcb-4-position/dp/2067349</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -292,18 +289,6 @@
     <t>https://au.mouser.com/ProductDetail/Molex/104224-0820?qs=sGAEpiMZZMuWWq7rhECaKVErQC8ayfpNSybwMgb%2Fhic%3D</t>
   </si>
   <si>
-    <t>DIL Socket</t>
-  </si>
-  <si>
-    <t>P057</t>
-  </si>
-  <si>
-    <t>28 Pin</t>
-  </si>
-  <si>
-    <t>https://www.altronics.com.au/p/p0571-oupiin-28-pin-0.3-inch-dil-tinned-ic-socket/</t>
-  </si>
-  <si>
     <t>IC1</t>
   </si>
   <si>
@@ -352,15 +337,9 @@
     <t>P1 / P2 / P3 / P4 / P6 / P7 / P9</t>
   </si>
   <si>
-    <t xml:space="preserve">4x04 / 1x09 / 1x12 / 1x16 </t>
-  </si>
-  <si>
     <t>MCP1700T-3302E</t>
   </si>
   <si>
-    <t>IC1*</t>
-  </si>
-  <si>
     <t>Quad Tristate Buffer</t>
   </si>
   <si>
@@ -388,15 +367,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>https://au.element14.com/hirose-hrs/u-fl-r-smt-01/rf-coaxial-u-fl-straight-jack/dp/3908021?st=ufl%20connector</t>
-  </si>
-  <si>
-    <t>UFL Connector</t>
-  </si>
-  <si>
-    <t>Hirose U.FL-R-SMT(01) -  RF</t>
-  </si>
-  <si>
     <t>C10</t>
   </si>
   <si>
@@ -476,6 +446,21 @@
   </si>
   <si>
     <t>ECS-80-18-30-JGN-TR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/molex/0393570002/WM7877-ND/946543</t>
+  </si>
+  <si>
+    <t>AT2, AT3</t>
+  </si>
+  <si>
+    <t>U.FL Antenna Connector</t>
+  </si>
+  <si>
+    <t>https://au.mouser.com/ProductDetail/TE-Connectivity/2337019-1?qs=sGAEpiMZZMuLQf%252BEuFsOrkd7M7rmHNHiTyct1cm10uWVyaBZJ%252BKFDA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x04 / 1x05 / 1x6 / 1x8 </t>
   </si>
 </sst>
 </file>
@@ -485,12 +470,19 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -592,33 +584,34 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -896,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -921,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -930,13 +923,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>117</v>
+        <v>80</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -950,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -961,14 +954,14 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>0.5</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <f>F2*G2</f>
         <v>0.5</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -986,15 +979,15 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="15">
-        <v>1</v>
-      </c>
-      <c r="H3" s="15">
-        <f t="shared" ref="H3:H30" si="0">F3*G3</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>100</v>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <f t="shared" ref="H3:H29" si="0">F3*G3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1011,15 +1004,15 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>1.5</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1027,7 +1020,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1041,171 +1034,171 @@
       <c r="F5">
         <v>24</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>0.3</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>0.6</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>19</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15">
-        <v>19</v>
-      </c>
-      <c r="H7" s="15">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>4</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>4</v>
-      </c>
-      <c r="H9" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="7">
         <v>1206</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>0.1</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -1213,27 +1206,27 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>0.1</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -1241,27 +1234,27 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>0.1</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -1269,57 +1262,57 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="15">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>0.1</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
@@ -1327,27 +1320,27 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <v>0.1</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -1355,27 +1348,27 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>0.1</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -1383,24 +1376,24 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <v>0.1</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -1408,27 +1401,27 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
         <v>50</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>0.1</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -1436,27 +1429,27 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
         <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <v>0.1</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -1464,27 +1457,27 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>0.1</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -1492,27 +1485,27 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
         <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <v>0.1</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -1520,438 +1513,407 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>60</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="15">
-        <v>1</v>
-      </c>
-      <c r="H23" s="15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="15">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>67</v>
       </c>
-      <c r="E25" t="s">
-        <v>68</v>
-      </c>
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <v>0.69</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14">
+        <v>19</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="15">
-        <v>19</v>
-      </c>
-      <c r="H26" s="15">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="H27" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="I27" s="13" t="s">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="D28" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="14">
+        <v>2.16</v>
+      </c>
+      <c r="H28" s="14">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
         <v>92</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1"/>
+      <c r="B30" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1">
+      <c r="A31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="H28" s="15">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="15">
-        <v>2.16</v>
-      </c>
-      <c r="H29" s="15">
-        <f t="shared" si="0"/>
-        <v>2.16</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="H30" s="15">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1"/>
-      <c r="B31" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="9"/>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="17">
+        <v>3.77</v>
+      </c>
+      <c r="H31" s="17">
+        <f t="shared" ref="H31:H38" si="1">G31*F31</f>
+        <v>3.77</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1">
       <c r="A32" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>121</v>
+        <v>32</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>119</v>
+        <v>33</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
-      <c r="G32" s="18">
-        <v>3.77</v>
-      </c>
-      <c r="H32" s="18">
-        <f t="shared" ref="H32:H39" si="1">G32*F32</f>
-        <v>3.77</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="3" customFormat="1">
-      <c r="A33" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1.98</v>
-      </c>
-      <c r="H33" s="18">
-        <f t="shared" si="1"/>
-        <v>1.98</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="3" customFormat="1">
-      <c r="A34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="18">
+      <c r="G32" s="17">
         <v>0.1</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H32" s="17">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="17" customFormat="1">
-      <c r="A35" s="3" t="s">
+    <row r="33" spans="1:9" s="16" customFormat="1">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E33" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="3">
         <v>2</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G33" s="14">
         <v>0.1</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H33" s="14">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="15">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="14">
         <v>0.77</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H34" s="14">
         <f t="shared" si="1"/>
         <v>0.77</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="15">
+      <c r="I34" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="14">
         <v>0.43</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H35" s="14">
         <f t="shared" si="1"/>
         <v>0.43</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="15">
+      <c r="I35" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="14">
         <v>0.63</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H36" s="14">
         <f t="shared" si="1"/>
         <v>0.63</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="17"/>
-      <c r="B39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" t="s">
-        <v>148</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="15">
+      <c r="I36" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="16"/>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H37" s="14">
         <f t="shared" si="1"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="G40" s="17"/>
-      <c r="I40" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="C38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="H38" s="14">
+        <f t="shared" si="1"/>
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1962,17 +1924,16 @@
     <hyperlink ref="I24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="I8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="I4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I26" r:id="rId9" display="https://www.aliexpress.com/item/32963816626.html?spm=2114.search0604.3.36.61e15ac4BS3gJ9&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_6_10065_10130_10068_10547_319_317_10548_10696_453_10084_454_10083_10618_10307_537_536_10131_10132_10133_10059_10884_10887_321_322_10103%2Csearchweb201603_51%2CppcSwitch_0&amp;algo_expid=a8ad79e3-3036-4b7a-8391-3f73e7497cac-5&amp;algo_pvid=a8ad79e3-3036-4b7a-8391-3f73e7497cac" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I30" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I10" r:id="rId15" xr:uid="{68617DBC-81B6-4EF9-9C99-38891EFD4A08}"/>
-    <hyperlink ref="I7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I26" r:id="rId8" display="https://www.aliexpress.com/item/32963816626.html?spm=2114.search0604.3.36.61e15ac4BS3gJ9&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_6_10065_10130_10068_10547_319_317_10548_10696_453_10084_454_10083_10618_10307_537_536_10131_10132_10133_10059_10884_10887_321_322_10103%2Csearchweb201603_51%2CppcSwitch_0&amp;algo_expid=a8ad79e3-3036-4b7a-8391-3f73e7497cac-5&amp;algo_pvid=a8ad79e3-3036-4b7a-8391-3f73e7497cac" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I10" r:id="rId13" xr:uid="{68617DBC-81B6-4EF9-9C99-38891EFD4A08}"/>
+    <hyperlink ref="I7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I5" r:id="rId15" xr:uid="{BEE04C60-5818-4990-B6E5-9C978C69140C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Board-Hardware/Manufacturing/BoSL BOM Rev 0.4.xlsx
+++ b/Board-Hardware/Manufacturing/BoSL BOM Rev 0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User070\scat0009\Documents\Monash-BoSL\Board-Hardware\Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9326E202-A145-4CB8-850D-7ABD3533591C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D183A6-2782-4298-88C9-A2F6E31A5EDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,7 +892,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
